--- a/doc/画面設計書.xlsx
+++ b/doc/画面設計書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27975" windowHeight="12060"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27975" windowHeight="12060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="一覧" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="115">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -808,12 +808,65 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>例
+{
+    projectName: "プロジェクト名A",
+    place: "作業場所B",
+    sales: "担当営業C",
+    overview: "案件概要D",
+    constitution: "プロジェクト構成E",
+    skill: "スキルF",
+    projectsTrends: "案件動向G",
+    customerTrends: "顧客動向H"
+}</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例
+｛
+    date: "2016/03/14",
+    arrivedWorkPlan: "9:30",
+    leftWorkPlan: "20:00"
+    arrivedWork: "9:30",
+    leftWork: "20:00",
+    etc: "特になし"
+}</t>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例
+{
+    task: "タスクA",
+    correspondingPeriod: "3月末",
+    progressRate: "100%",
+    priority: "高",
+    concern: "特になし"
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>例
+{
+    quality: "特になし",
+    cost: "特になし",
+    deliveryDate: "特になし",
+    etc: "特になし"
+}</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,6 +1401,78 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1359,21 +1484,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1389,63 +1499,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4396,7 +4449,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4470,6 +4523,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4504,6 +4558,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4679,14 +4734,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -4695,31 +4750,31 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -4737,41 +4792,41 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4789,7 +4844,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -4807,7 +4862,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4823,7 +4878,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -4839,7 +4894,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -4855,7 +4910,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -4871,7 +4926,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -4887,7 +4942,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -4903,7 +4958,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -4919,7 +4974,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -4935,7 +4990,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -4951,7 +5006,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -4967,7 +5022,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -4983,7 +5038,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -4999,7 +5054,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -5015,7 +5070,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -5031,7 +5086,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -5047,7 +5102,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -5063,7 +5118,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -5079,7 +5134,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -5095,7 +5150,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -5111,7 +5166,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -5127,7 +5182,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -5143,7 +5198,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -5159,7 +5214,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -5175,7 +5230,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -5191,7 +5246,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -5207,7 +5262,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -5223,7 +5278,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -5239,7 +5294,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -5255,7 +5310,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -5271,7 +5326,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -5287,7 +5342,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -5303,7 +5358,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -5319,7 +5374,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -5335,7 +5390,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -5351,7 +5406,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -5367,7 +5422,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -5383,7 +5438,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -5399,7 +5454,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -5415,7 +5470,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -5431,7 +5486,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -5447,7 +5502,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -5463,7 +5518,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="20"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -5479,7 +5534,7 @@
       <c r="M48" s="16"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -5495,7 +5550,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -5511,7 +5566,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -5527,7 +5582,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -5543,7 +5598,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -5559,7 +5614,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -5575,7 +5630,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -5591,7 +5646,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -5607,7 +5662,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -5623,7 +5678,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -5639,7 +5694,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -5655,7 +5710,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -5671,7 +5726,7 @@
       <c r="M60" s="16"/>
       <c r="N60" s="17"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -5687,7 +5742,7 @@
       <c r="M61" s="16"/>
       <c r="N61" s="17"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5703,7 +5758,7 @@
       <c r="M62" s="16"/>
       <c r="N62" s="17"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -5719,7 +5774,7 @@
       <c r="M63" s="16"/>
       <c r="N63" s="17"/>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5735,7 +5790,7 @@
       <c r="M64" s="16"/>
       <c r="N64" s="17"/>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5751,7 +5806,7 @@
       <c r="M65" s="16"/>
       <c r="N65" s="17"/>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5767,7 +5822,7 @@
       <c r="M66" s="16"/>
       <c r="N66" s="17"/>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5783,7 +5838,7 @@
       <c r="M67" s="16"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5799,7 +5854,7 @@
       <c r="M68" s="16"/>
       <c r="N68" s="17"/>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5815,7 +5870,7 @@
       <c r="M69" s="16"/>
       <c r="N69" s="17"/>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5831,7 +5886,7 @@
       <c r="M70" s="16"/>
       <c r="N70" s="17"/>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5847,7 +5902,7 @@
       <c r="M71" s="16"/>
       <c r="N71" s="17"/>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5863,7 +5918,7 @@
       <c r="M72" s="16"/>
       <c r="N72" s="17"/>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5879,7 +5934,7 @@
       <c r="M73" s="16"/>
       <c r="N73" s="17"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5895,7 +5950,7 @@
       <c r="M74" s="16"/>
       <c r="N74" s="17"/>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5911,7 +5966,7 @@
       <c r="M75" s="16"/>
       <c r="N75" s="17"/>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5927,7 +5982,7 @@
       <c r="M76" s="16"/>
       <c r="N76" s="17"/>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5943,7 +5998,7 @@
       <c r="M77" s="16"/>
       <c r="N77" s="17"/>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5959,7 +6014,7 @@
       <c r="M78" s="16"/>
       <c r="N78" s="17"/>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5975,7 +6030,7 @@
       <c r="M79" s="16"/>
       <c r="N79" s="17"/>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5991,7 +6046,7 @@
       <c r="M80" s="16"/>
       <c r="N80" s="17"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -6007,7 +6062,7 @@
       <c r="M81" s="16"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -6023,7 +6078,7 @@
       <c r="M82" s="16"/>
       <c r="N82" s="17"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -6039,7 +6094,7 @@
       <c r="M83" s="16"/>
       <c r="N83" s="17"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -6055,7 +6110,7 @@
       <c r="M84" s="16"/>
       <c r="N84" s="17"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -6071,7 +6126,7 @@
       <c r="M85" s="16"/>
       <c r="N85" s="17"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -6087,7 +6142,7 @@
       <c r="M86" s="16"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -6103,7 +6158,7 @@
       <c r="M87" s="16"/>
       <c r="N87" s="17"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -6119,7 +6174,7 @@
       <c r="M88" s="16"/>
       <c r="N88" s="17"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -6135,7 +6190,7 @@
       <c r="M89" s="16"/>
       <c r="N89" s="17"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -6151,7 +6206,7 @@
       <c r="M90" s="16"/>
       <c r="N90" s="17"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -6167,7 +6222,7 @@
       <c r="M91" s="16"/>
       <c r="N91" s="17"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -6183,7 +6238,7 @@
       <c r="M92" s="16"/>
       <c r="N92" s="17"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -6199,7 +6254,7 @@
       <c r="M93" s="16"/>
       <c r="N93" s="17"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -6215,7 +6270,7 @@
       <c r="M94" s="16"/>
       <c r="N94" s="17"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -6231,7 +6286,7 @@
       <c r="M95" s="16"/>
       <c r="N95" s="17"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -6247,7 +6302,7 @@
       <c r="M96" s="16"/>
       <c r="N96" s="17"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -6263,7 +6318,7 @@
       <c r="M97" s="16"/>
       <c r="N97" s="17"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -6279,7 +6334,7 @@
       <c r="M98" s="16"/>
       <c r="N98" s="17"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -6295,7 +6350,7 @@
       <c r="M99" s="16"/>
       <c r="N99" s="17"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -6311,7 +6366,7 @@
       <c r="M100" s="16"/>
       <c r="N100" s="17"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -6327,7 +6382,7 @@
       <c r="M101" s="16"/>
       <c r="N101" s="17"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -6343,7 +6398,7 @@
       <c r="M102" s="16"/>
       <c r="N102" s="17"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -6359,7 +6414,7 @@
       <c r="M103" s="16"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -6375,7 +6430,7 @@
       <c r="M104" s="16"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A105" s="15"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -6391,7 +6446,7 @@
       <c r="M105" s="16"/>
       <c r="N105" s="17"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -6407,7 +6462,7 @@
       <c r="M106" s="16"/>
       <c r="N106" s="17"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -6423,7 +6478,7 @@
       <c r="M107" s="16"/>
       <c r="N107" s="17"/>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -6439,7 +6494,7 @@
       <c r="M108" s="16"/>
       <c r="N108" s="17"/>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -6455,7 +6510,7 @@
       <c r="M109" s="16"/>
       <c r="N109" s="17"/>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -6471,7 +6526,7 @@
       <c r="M110" s="16"/>
       <c r="N110" s="17"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -6487,7 +6542,7 @@
       <c r="M111" s="16"/>
       <c r="N111" s="17"/>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -6503,7 +6558,7 @@
       <c r="M112" s="16"/>
       <c r="N112" s="17"/>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A113" s="15"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -6519,7 +6574,7 @@
       <c r="M113" s="16"/>
       <c r="N113" s="17"/>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A114" s="15"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -6535,7 +6590,7 @@
       <c r="M114" s="16"/>
       <c r="N114" s="17"/>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A115" s="15"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -6551,7 +6606,7 @@
       <c r="M115" s="16"/>
       <c r="N115" s="17"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A116" s="15"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -6567,7 +6622,7 @@
       <c r="M116" s="16"/>
       <c r="N116" s="17"/>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A117" s="15"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -6583,7 +6638,7 @@
       <c r="M117" s="16"/>
       <c r="N117" s="17"/>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A118" s="15"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -6599,7 +6654,7 @@
       <c r="M118" s="16"/>
       <c r="N118" s="17"/>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -6615,7 +6670,7 @@
       <c r="M119" s="16"/>
       <c r="N119" s="17"/>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A120" s="15"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -6631,7 +6686,7 @@
       <c r="M120" s="16"/>
       <c r="N120" s="17"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -6647,7 +6702,7 @@
       <c r="M121" s="16"/>
       <c r="N121" s="17"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -6663,7 +6718,7 @@
       <c r="M122" s="16"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A123" s="15"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -6679,7 +6734,7 @@
       <c r="M123" s="16"/>
       <c r="N123" s="17"/>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A124" s="15"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -6695,7 +6750,7 @@
       <c r="M124" s="16"/>
       <c r="N124" s="17"/>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A125" s="12"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -6711,7 +6766,7 @@
       <c r="M125" s="13"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
         <v>5</v>
       </c>
@@ -6729,7 +6784,7 @@
       <c r="M126" s="6"/>
       <c r="N126" s="7"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A127" s="23" t="s">
         <v>6</v>
       </c>
@@ -6763,7 +6818,7 @@
       <c r="M127" s="26"/>
       <c r="N127" s="27"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A128" s="21">
         <v>1</v>
       </c>
@@ -6786,14 +6841,14 @@
       <c r="H128" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="I128" s="51"/>
-      <c r="J128" s="52"/>
-      <c r="K128" s="52"/>
-      <c r="L128" s="52"/>
-      <c r="M128" s="52"/>
-      <c r="N128" s="53"/>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="I128" s="48"/>
+      <c r="J128" s="49"/>
+      <c r="K128" s="49"/>
+      <c r="L128" s="49"/>
+      <c r="M128" s="49"/>
+      <c r="N128" s="50"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A129" s="21">
         <v>2</v>
       </c>
@@ -6816,18 +6871,18 @@
       <c r="H129" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="I129" s="51"/>
-      <c r="J129" s="52"/>
-      <c r="K129" s="52"/>
-      <c r="L129" s="52"/>
-      <c r="M129" s="52"/>
-      <c r="N129" s="53"/>
-    </row>
-    <row r="130" spans="1:14" ht="27">
+      <c r="I129" s="48"/>
+      <c r="J129" s="49"/>
+      <c r="K129" s="49"/>
+      <c r="L129" s="49"/>
+      <c r="M129" s="49"/>
+      <c r="N129" s="50"/>
+    </row>
+    <row r="130" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A130" s="21">
         <v>3</v>
       </c>
-      <c r="B130" s="69" t="s">
+      <c r="B130" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C130" s="21"/>
@@ -6846,14 +6901,14 @@
       <c r="H130" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I130" s="51"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="52"/>
-      <c r="L130" s="52"/>
-      <c r="M130" s="52"/>
-      <c r="N130" s="53"/>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="I130" s="48"/>
+      <c r="J130" s="49"/>
+      <c r="K130" s="49"/>
+      <c r="L130" s="49"/>
+      <c r="M130" s="49"/>
+      <c r="N130" s="50"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A131" s="21">
         <v>4</v>
       </c>
@@ -6876,14 +6931,14 @@
       <c r="H131" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I131" s="51"/>
-      <c r="J131" s="52"/>
-      <c r="K131" s="52"/>
-      <c r="L131" s="52"/>
-      <c r="M131" s="52"/>
-      <c r="N131" s="53"/>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="I131" s="48"/>
+      <c r="J131" s="49"/>
+      <c r="K131" s="49"/>
+      <c r="L131" s="49"/>
+      <c r="M131" s="49"/>
+      <c r="N131" s="50"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A132" s="21"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -6892,14 +6947,14 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="21"/>
-      <c r="I132" s="51"/>
-      <c r="J132" s="52"/>
-      <c r="K132" s="52"/>
-      <c r="L132" s="52"/>
-      <c r="M132" s="52"/>
-      <c r="N132" s="53"/>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="I132" s="48"/>
+      <c r="J132" s="49"/>
+      <c r="K132" s="49"/>
+      <c r="L132" s="49"/>
+      <c r="M132" s="49"/>
+      <c r="N132" s="50"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
         <v>13</v>
       </c>
@@ -6917,7 +6972,7 @@
       <c r="M133" s="6"/>
       <c r="N133" s="7"/>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A134" s="34" t="s">
         <v>6</v>
       </c>
@@ -6927,23 +6982,23 @@
       <c r="C134" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D134" s="54" t="s">
+      <c r="D134" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E134" s="54"/>
-      <c r="F134" s="54"/>
-      <c r="G134" s="55" t="s">
+      <c r="E134" s="58"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="55"/>
-      <c r="K134" s="55"/>
-      <c r="L134" s="55"/>
-      <c r="M134" s="55"/>
-      <c r="N134" s="56"/>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
+      <c r="L134" s="59"/>
+      <c r="M134" s="59"/>
+      <c r="N134" s="60"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A135" s="29">
         <v>1</v>
       </c>
@@ -6953,21 +7008,21 @@
       <c r="C135" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D135" s="68" t="s">
+      <c r="D135" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E135" s="58"/>
-      <c r="F135" s="59"/>
-      <c r="G135" s="58"/>
-      <c r="H135" s="58"/>
-      <c r="I135" s="58"/>
-      <c r="J135" s="58"/>
-      <c r="K135" s="58"/>
-      <c r="L135" s="58"/>
-      <c r="M135" s="58"/>
-      <c r="N135" s="59"/>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="E135" s="55"/>
+      <c r="F135" s="56"/>
+      <c r="G135" s="55"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="55"/>
+      <c r="J135" s="55"/>
+      <c r="K135" s="55"/>
+      <c r="L135" s="55"/>
+      <c r="M135" s="55"/>
+      <c r="N135" s="56"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A136" s="29">
         <v>2</v>
       </c>
@@ -6977,49 +7032,49 @@
       <c r="C136" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D136" s="68" t="s">
+      <c r="D136" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E136" s="58"/>
-      <c r="F136" s="59"/>
-      <c r="G136" s="58" t="s">
+      <c r="E136" s="55"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H136" s="58"/>
-      <c r="I136" s="58"/>
-      <c r="J136" s="58"/>
-      <c r="K136" s="58"/>
-      <c r="L136" s="58"/>
-      <c r="M136" s="58"/>
-      <c r="N136" s="59"/>
-    </row>
-    <row r="137" spans="1:14" ht="27">
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="55"/>
+      <c r="K136" s="55"/>
+      <c r="L136" s="55"/>
+      <c r="M136" s="55"/>
+      <c r="N136" s="56"/>
+    </row>
+    <row r="137" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A137" s="29">
         <v>3</v>
       </c>
-      <c r="B137" s="69" t="s">
+      <c r="B137" s="38" t="s">
         <v>103</v>
       </c>
       <c r="C137" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D137" s="68" t="s">
+      <c r="D137" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="E137" s="58"/>
-      <c r="F137" s="59"/>
-      <c r="G137" s="58" t="s">
+      <c r="E137" s="55"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="H137" s="58"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="58"/>
-      <c r="K137" s="58"/>
-      <c r="L137" s="58"/>
-      <c r="M137" s="58"/>
-      <c r="N137" s="59"/>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="55"/>
+      <c r="K137" s="55"/>
+      <c r="L137" s="55"/>
+      <c r="M137" s="55"/>
+      <c r="N137" s="56"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A138" s="29">
         <v>4</v>
       </c>
@@ -7032,226 +7087,226 @@
       <c r="D138" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="E138" s="58"/>
-      <c r="F138" s="59"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="58"/>
-      <c r="K138" s="58"/>
-      <c r="L138" s="58"/>
-      <c r="M138" s="58"/>
-      <c r="N138" s="59"/>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="E138" s="55"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="55"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="55"/>
+      <c r="J138" s="55"/>
+      <c r="K138" s="55"/>
+      <c r="L138" s="55"/>
+      <c r="M138" s="55"/>
+      <c r="N138" s="56"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="30"/>
-      <c r="D139" s="62"/>
-      <c r="E139" s="62"/>
-      <c r="F139" s="62"/>
-      <c r="G139" s="60"/>
-      <c r="H139" s="60"/>
-      <c r="I139" s="60"/>
-      <c r="J139" s="60"/>
-      <c r="K139" s="60"/>
-      <c r="L139" s="60"/>
-      <c r="M139" s="60"/>
-      <c r="N139" s="61"/>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="52"/>
+      <c r="H139" s="52"/>
+      <c r="I139" s="52"/>
+      <c r="J139" s="52"/>
+      <c r="K139" s="52"/>
+      <c r="L139" s="52"/>
+      <c r="M139" s="52"/>
+      <c r="N139" s="53"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="30"/>
-      <c r="D140" s="62"/>
-      <c r="E140" s="62"/>
-      <c r="F140" s="62"/>
-      <c r="G140" s="60"/>
-      <c r="H140" s="60"/>
-      <c r="I140" s="60"/>
-      <c r="J140" s="60"/>
-      <c r="K140" s="60"/>
-      <c r="L140" s="60"/>
-      <c r="M140" s="60"/>
-      <c r="N140" s="61"/>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="52"/>
+      <c r="H140" s="52"/>
+      <c r="I140" s="52"/>
+      <c r="J140" s="52"/>
+      <c r="K140" s="52"/>
+      <c r="L140" s="52"/>
+      <c r="M140" s="52"/>
+      <c r="N140" s="53"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="30"/>
-      <c r="D141" s="62"/>
-      <c r="E141" s="62"/>
-      <c r="F141" s="62"/>
-      <c r="G141" s="60"/>
-      <c r="H141" s="60"/>
-      <c r="I141" s="60"/>
-      <c r="J141" s="60"/>
-      <c r="K141" s="60"/>
-      <c r="L141" s="60"/>
-      <c r="M141" s="60"/>
-      <c r="N141" s="61"/>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="52"/>
+      <c r="H141" s="52"/>
+      <c r="I141" s="52"/>
+      <c r="J141" s="52"/>
+      <c r="K141" s="52"/>
+      <c r="L141" s="52"/>
+      <c r="M141" s="52"/>
+      <c r="N141" s="53"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="30"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="62"/>
-      <c r="G142" s="60"/>
-      <c r="H142" s="60"/>
-      <c r="I142" s="60"/>
-      <c r="J142" s="60"/>
-      <c r="K142" s="60"/>
-      <c r="L142" s="60"/>
-      <c r="M142" s="60"/>
-      <c r="N142" s="61"/>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="52"/>
+      <c r="H142" s="52"/>
+      <c r="I142" s="52"/>
+      <c r="J142" s="52"/>
+      <c r="K142" s="52"/>
+      <c r="L142" s="52"/>
+      <c r="M142" s="52"/>
+      <c r="N142" s="53"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="30"/>
-      <c r="D143" s="62"/>
-      <c r="E143" s="62"/>
-      <c r="F143" s="62"/>
-      <c r="G143" s="60"/>
-      <c r="H143" s="60"/>
-      <c r="I143" s="60"/>
-      <c r="J143" s="60"/>
-      <c r="K143" s="60"/>
-      <c r="L143" s="60"/>
-      <c r="M143" s="60"/>
-      <c r="N143" s="61"/>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="52"/>
+      <c r="H143" s="52"/>
+      <c r="I143" s="52"/>
+      <c r="J143" s="52"/>
+      <c r="K143" s="52"/>
+      <c r="L143" s="52"/>
+      <c r="M143" s="52"/>
+      <c r="N143" s="53"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="30"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="60"/>
-      <c r="H144" s="60"/>
-      <c r="I144" s="60"/>
-      <c r="J144" s="60"/>
-      <c r="K144" s="60"/>
-      <c r="L144" s="60"/>
-      <c r="M144" s="60"/>
-      <c r="N144" s="61"/>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="D144" s="51"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="51"/>
+      <c r="G144" s="52"/>
+      <c r="H144" s="52"/>
+      <c r="I144" s="52"/>
+      <c r="J144" s="52"/>
+      <c r="K144" s="52"/>
+      <c r="L144" s="52"/>
+      <c r="M144" s="52"/>
+      <c r="N144" s="53"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="30"/>
-      <c r="D145" s="62"/>
-      <c r="E145" s="62"/>
-      <c r="F145" s="62"/>
-      <c r="G145" s="60"/>
-      <c r="H145" s="60"/>
-      <c r="I145" s="60"/>
-      <c r="J145" s="60"/>
-      <c r="K145" s="60"/>
-      <c r="L145" s="60"/>
-      <c r="M145" s="60"/>
-      <c r="N145" s="61"/>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="D145" s="51"/>
+      <c r="E145" s="51"/>
+      <c r="F145" s="51"/>
+      <c r="G145" s="52"/>
+      <c r="H145" s="52"/>
+      <c r="I145" s="52"/>
+      <c r="J145" s="52"/>
+      <c r="K145" s="52"/>
+      <c r="L145" s="52"/>
+      <c r="M145" s="52"/>
+      <c r="N145" s="53"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="30"/>
-      <c r="D146" s="62"/>
-      <c r="E146" s="62"/>
-      <c r="F146" s="62"/>
-      <c r="G146" s="60"/>
-      <c r="H146" s="60"/>
-      <c r="I146" s="60"/>
-      <c r="J146" s="60"/>
-      <c r="K146" s="60"/>
-      <c r="L146" s="60"/>
-      <c r="M146" s="60"/>
-      <c r="N146" s="61"/>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="D146" s="51"/>
+      <c r="E146" s="51"/>
+      <c r="F146" s="51"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="I146" s="52"/>
+      <c r="J146" s="52"/>
+      <c r="K146" s="52"/>
+      <c r="L146" s="52"/>
+      <c r="M146" s="52"/>
+      <c r="N146" s="53"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="30"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="60"/>
-      <c r="H147" s="60"/>
-      <c r="I147" s="60"/>
-      <c r="J147" s="60"/>
-      <c r="K147" s="60"/>
-      <c r="L147" s="60"/>
-      <c r="M147" s="60"/>
-      <c r="N147" s="61"/>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="D147" s="51"/>
+      <c r="E147" s="51"/>
+      <c r="F147" s="51"/>
+      <c r="G147" s="52"/>
+      <c r="H147" s="52"/>
+      <c r="I147" s="52"/>
+      <c r="J147" s="52"/>
+      <c r="K147" s="52"/>
+      <c r="L147" s="52"/>
+      <c r="M147" s="52"/>
+      <c r="N147" s="53"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="30"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="62"/>
-      <c r="G148" s="60"/>
-      <c r="H148" s="60"/>
-      <c r="I148" s="60"/>
-      <c r="J148" s="60"/>
-      <c r="K148" s="60"/>
-      <c r="L148" s="60"/>
-      <c r="M148" s="60"/>
-      <c r="N148" s="61"/>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="D148" s="51"/>
+      <c r="E148" s="51"/>
+      <c r="F148" s="51"/>
+      <c r="G148" s="52"/>
+      <c r="H148" s="52"/>
+      <c r="I148" s="52"/>
+      <c r="J148" s="52"/>
+      <c r="K148" s="52"/>
+      <c r="L148" s="52"/>
+      <c r="M148" s="52"/>
+      <c r="N148" s="53"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="30"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="62"/>
-      <c r="F149" s="62"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="60"/>
-      <c r="L149" s="60"/>
-      <c r="M149" s="60"/>
-      <c r="N149" s="61"/>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="D149" s="51"/>
+      <c r="E149" s="51"/>
+      <c r="F149" s="51"/>
+      <c r="G149" s="52"/>
+      <c r="H149" s="52"/>
+      <c r="I149" s="52"/>
+      <c r="J149" s="52"/>
+      <c r="K149" s="52"/>
+      <c r="L149" s="52"/>
+      <c r="M149" s="52"/>
+      <c r="N149" s="53"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="30"/>
-      <c r="D150" s="62"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="62"/>
-      <c r="G150" s="60"/>
-      <c r="H150" s="60"/>
-      <c r="I150" s="60"/>
-      <c r="J150" s="60"/>
-      <c r="K150" s="60"/>
-      <c r="L150" s="60"/>
-      <c r="M150" s="60"/>
-      <c r="N150" s="61"/>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="D150" s="51"/>
+      <c r="E150" s="51"/>
+      <c r="F150" s="51"/>
+      <c r="G150" s="52"/>
+      <c r="H150" s="52"/>
+      <c r="I150" s="52"/>
+      <c r="J150" s="52"/>
+      <c r="K150" s="52"/>
+      <c r="L150" s="52"/>
+      <c r="M150" s="52"/>
+      <c r="N150" s="53"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="30"/>
-      <c r="D151" s="62"/>
-      <c r="E151" s="62"/>
-      <c r="F151" s="62"/>
-      <c r="G151" s="60"/>
-      <c r="H151" s="60"/>
-      <c r="I151" s="60"/>
-      <c r="J151" s="60"/>
-      <c r="K151" s="60"/>
-      <c r="L151" s="60"/>
-      <c r="M151" s="60"/>
-      <c r="N151" s="61"/>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="D151" s="51"/>
+      <c r="E151" s="51"/>
+      <c r="F151" s="51"/>
+      <c r="G151" s="52"/>
+      <c r="H151" s="52"/>
+      <c r="I151" s="52"/>
+      <c r="J151" s="52"/>
+      <c r="K151" s="52"/>
+      <c r="L151" s="52"/>
+      <c r="M151" s="52"/>
+      <c r="N151" s="53"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
         <v>52</v>
       </c>
@@ -7269,248 +7324,277 @@
       <c r="M152" s="6"/>
       <c r="N152" s="7"/>
     </row>
-    <row r="153" spans="1:14">
-      <c r="A153" s="63"/>
-      <c r="B153" s="41"/>
-      <c r="C153" s="41"/>
-      <c r="D153" s="41"/>
-      <c r="E153" s="41"/>
-      <c r="F153" s="41"/>
-      <c r="G153" s="41"/>
-      <c r="H153" s="41"/>
-      <c r="I153" s="41"/>
-      <c r="J153" s="41"/>
-      <c r="K153" s="41"/>
-      <c r="L153" s="41"/>
-      <c r="M153" s="41"/>
-      <c r="N153" s="42"/>
-    </row>
-    <row r="154" spans="1:14">
-      <c r="A154" s="64"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="65"/>
-      <c r="F154" s="65"/>
-      <c r="G154" s="65"/>
-      <c r="H154" s="65"/>
-      <c r="I154" s="65"/>
-      <c r="J154" s="65"/>
-      <c r="K154" s="65"/>
-      <c r="L154" s="65"/>
-      <c r="M154" s="65"/>
-      <c r="N154" s="66"/>
-    </row>
-    <row r="155" spans="1:14">
-      <c r="A155" s="64"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-      <c r="G155" s="65"/>
-      <c r="H155" s="65"/>
-      <c r="I155" s="65"/>
-      <c r="J155" s="65"/>
-      <c r="K155" s="65"/>
-      <c r="L155" s="65"/>
-      <c r="M155" s="65"/>
-      <c r="N155" s="66"/>
-    </row>
-    <row r="156" spans="1:14">
-      <c r="A156" s="64"/>
-      <c r="B156" s="65"/>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-      <c r="G156" s="65"/>
-      <c r="H156" s="65"/>
-      <c r="I156" s="65"/>
-      <c r="J156" s="65"/>
-      <c r="K156" s="65"/>
-      <c r="L156" s="65"/>
-      <c r="M156" s="65"/>
-      <c r="N156" s="66"/>
-    </row>
-    <row r="157" spans="1:14">
-      <c r="A157" s="64"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="65"/>
-      <c r="F157" s="65"/>
-      <c r="G157" s="65"/>
-      <c r="H157" s="65"/>
-      <c r="I157" s="65"/>
-      <c r="J157" s="65"/>
-      <c r="K157" s="65"/>
-      <c r="L157" s="65"/>
-      <c r="M157" s="65"/>
-      <c r="N157" s="66"/>
-    </row>
-    <row r="158" spans="1:14">
-      <c r="A158" s="64"/>
-      <c r="B158" s="65"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="65"/>
-      <c r="F158" s="65"/>
-      <c r="G158" s="65"/>
-      <c r="H158" s="65"/>
-      <c r="I158" s="65"/>
-      <c r="J158" s="65"/>
-      <c r="K158" s="65"/>
-      <c r="L158" s="65"/>
-      <c r="M158" s="65"/>
-      <c r="N158" s="66"/>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="64"/>
-      <c r="B159" s="65"/>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="65"/>
-      <c r="F159" s="65"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="65"/>
-      <c r="I159" s="65"/>
-      <c r="J159" s="65"/>
-      <c r="K159" s="65"/>
-      <c r="L159" s="65"/>
-      <c r="M159" s="65"/>
-      <c r="N159" s="66"/>
-    </row>
-    <row r="160" spans="1:14">
-      <c r="A160" s="64"/>
-      <c r="B160" s="65"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="65"/>
-      <c r="F160" s="65"/>
-      <c r="G160" s="65"/>
-      <c r="H160" s="65"/>
-      <c r="I160" s="65"/>
-      <c r="J160" s="65"/>
-      <c r="K160" s="65"/>
-      <c r="L160" s="65"/>
-      <c r="M160" s="65"/>
-      <c r="N160" s="66"/>
-    </row>
-    <row r="161" spans="1:14">
-      <c r="A161" s="64"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="65"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="65"/>
-      <c r="F161" s="65"/>
-      <c r="G161" s="65"/>
-      <c r="H161" s="65"/>
-      <c r="I161" s="65"/>
-      <c r="J161" s="65"/>
-      <c r="K161" s="65"/>
-      <c r="L161" s="65"/>
-      <c r="M161" s="65"/>
-      <c r="N161" s="66"/>
-    </row>
-    <row r="162" spans="1:14">
-      <c r="A162" s="64"/>
-      <c r="B162" s="65"/>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="65"/>
-      <c r="F162" s="65"/>
-      <c r="G162" s="65"/>
-      <c r="H162" s="65"/>
-      <c r="I162" s="65"/>
-      <c r="J162" s="65"/>
-      <c r="K162" s="65"/>
-      <c r="L162" s="65"/>
-      <c r="M162" s="65"/>
-      <c r="N162" s="66"/>
-    </row>
-    <row r="163" spans="1:14">
-      <c r="A163" s="64"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="65"/>
-      <c r="D163" s="65"/>
-      <c r="E163" s="65"/>
-      <c r="F163" s="65"/>
-      <c r="G163" s="65"/>
-      <c r="H163" s="65"/>
-      <c r="I163" s="65"/>
-      <c r="J163" s="65"/>
-      <c r="K163" s="65"/>
-      <c r="L163" s="65"/>
-      <c r="M163" s="65"/>
-      <c r="N163" s="66"/>
-    </row>
-    <row r="164" spans="1:14">
-      <c r="A164" s="64"/>
-      <c r="B164" s="65"/>
-      <c r="C164" s="65"/>
-      <c r="D164" s="65"/>
-      <c r="E164" s="65"/>
-      <c r="F164" s="65"/>
-      <c r="G164" s="65"/>
-      <c r="H164" s="65"/>
-      <c r="I164" s="65"/>
-      <c r="J164" s="65"/>
-      <c r="K164" s="65"/>
-      <c r="L164" s="65"/>
-      <c r="M164" s="65"/>
-      <c r="N164" s="66"/>
-    </row>
-    <row r="165" spans="1:14">
-      <c r="A165" s="64"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="65"/>
-      <c r="D165" s="65"/>
-      <c r="E165" s="65"/>
-      <c r="F165" s="65"/>
-      <c r="G165" s="65"/>
-      <c r="H165" s="65"/>
-      <c r="I165" s="65"/>
-      <c r="J165" s="65"/>
-      <c r="K165" s="65"/>
-      <c r="L165" s="65"/>
-      <c r="M165" s="65"/>
-      <c r="N165" s="66"/>
-    </row>
-    <row r="166" spans="1:14">
-      <c r="A166" s="64"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="65"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="65"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="65"/>
-      <c r="H166" s="65"/>
-      <c r="I166" s="65"/>
-      <c r="J166" s="65"/>
-      <c r="K166" s="65"/>
-      <c r="L166" s="65"/>
-      <c r="M166" s="65"/>
-      <c r="N166" s="66"/>
-    </row>
-    <row r="167" spans="1:14">
-      <c r="A167" s="43"/>
-      <c r="B167" s="44"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44"/>
-      <c r="I167" s="44"/>
-      <c r="J167" s="44"/>
-      <c r="K167" s="44"/>
-      <c r="L167" s="44"/>
-      <c r="M167" s="44"/>
-      <c r="N167" s="45"/>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A153" s="39"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="40"/>
+      <c r="F153" s="40"/>
+      <c r="G153" s="40"/>
+      <c r="H153" s="40"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="40"/>
+      <c r="L153" s="40"/>
+      <c r="M153" s="40"/>
+      <c r="N153" s="41"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A154" s="42"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
+      <c r="I154" s="43"/>
+      <c r="J154" s="43"/>
+      <c r="K154" s="43"/>
+      <c r="L154" s="43"/>
+      <c r="M154" s="43"/>
+      <c r="N154" s="44"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A155" s="42"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
+      <c r="I155" s="43"/>
+      <c r="J155" s="43"/>
+      <c r="K155" s="43"/>
+      <c r="L155" s="43"/>
+      <c r="M155" s="43"/>
+      <c r="N155" s="44"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A156" s="42"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43"/>
+      <c r="I156" s="43"/>
+      <c r="J156" s="43"/>
+      <c r="K156" s="43"/>
+      <c r="L156" s="43"/>
+      <c r="M156" s="43"/>
+      <c r="N156" s="44"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A157" s="42"/>
+      <c r="B157" s="43"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="43"/>
+      <c r="E157" s="43"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="43"/>
+      <c r="H157" s="43"/>
+      <c r="I157" s="43"/>
+      <c r="J157" s="43"/>
+      <c r="K157" s="43"/>
+      <c r="L157" s="43"/>
+      <c r="M157" s="43"/>
+      <c r="N157" s="44"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A158" s="42"/>
+      <c r="B158" s="43"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
+      <c r="I158" s="43"/>
+      <c r="J158" s="43"/>
+      <c r="K158" s="43"/>
+      <c r="L158" s="43"/>
+      <c r="M158" s="43"/>
+      <c r="N158" s="44"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A159" s="42"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="43"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
+      <c r="I159" s="43"/>
+      <c r="J159" s="43"/>
+      <c r="K159" s="43"/>
+      <c r="L159" s="43"/>
+      <c r="M159" s="43"/>
+      <c r="N159" s="44"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A160" s="42"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
+      <c r="I160" s="43"/>
+      <c r="J160" s="43"/>
+      <c r="K160" s="43"/>
+      <c r="L160" s="43"/>
+      <c r="M160" s="43"/>
+      <c r="N160" s="44"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A161" s="42"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
+      <c r="I161" s="43"/>
+      <c r="J161" s="43"/>
+      <c r="K161" s="43"/>
+      <c r="L161" s="43"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="44"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A162" s="42"/>
+      <c r="B162" s="43"/>
+      <c r="C162" s="43"/>
+      <c r="D162" s="43"/>
+      <c r="E162" s="43"/>
+      <c r="F162" s="43"/>
+      <c r="G162" s="43"/>
+      <c r="H162" s="43"/>
+      <c r="I162" s="43"/>
+      <c r="J162" s="43"/>
+      <c r="K162" s="43"/>
+      <c r="L162" s="43"/>
+      <c r="M162" s="43"/>
+      <c r="N162" s="44"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A163" s="42"/>
+      <c r="B163" s="43"/>
+      <c r="C163" s="43"/>
+      <c r="D163" s="43"/>
+      <c r="E163" s="43"/>
+      <c r="F163" s="43"/>
+      <c r="G163" s="43"/>
+      <c r="H163" s="43"/>
+      <c r="I163" s="43"/>
+      <c r="J163" s="43"/>
+      <c r="K163" s="43"/>
+      <c r="L163" s="43"/>
+      <c r="M163" s="43"/>
+      <c r="N163" s="44"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A164" s="42"/>
+      <c r="B164" s="43"/>
+      <c r="C164" s="43"/>
+      <c r="D164" s="43"/>
+      <c r="E164" s="43"/>
+      <c r="F164" s="43"/>
+      <c r="G164" s="43"/>
+      <c r="H164" s="43"/>
+      <c r="I164" s="43"/>
+      <c r="J164" s="43"/>
+      <c r="K164" s="43"/>
+      <c r="L164" s="43"/>
+      <c r="M164" s="43"/>
+      <c r="N164" s="44"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A165" s="42"/>
+      <c r="B165" s="43"/>
+      <c r="C165" s="43"/>
+      <c r="D165" s="43"/>
+      <c r="E165" s="43"/>
+      <c r="F165" s="43"/>
+      <c r="G165" s="43"/>
+      <c r="H165" s="43"/>
+      <c r="I165" s="43"/>
+      <c r="J165" s="43"/>
+      <c r="K165" s="43"/>
+      <c r="L165" s="43"/>
+      <c r="M165" s="43"/>
+      <c r="N165" s="44"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A166" s="42"/>
+      <c r="B166" s="43"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
+      <c r="I166" s="43"/>
+      <c r="J166" s="43"/>
+      <c r="K166" s="43"/>
+      <c r="L166" s="43"/>
+      <c r="M166" s="43"/>
+      <c r="N166" s="44"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A167" s="45"/>
+      <c r="B167" s="46"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="46"/>
+      <c r="H167" s="46"/>
+      <c r="I167" s="46"/>
+      <c r="J167" s="46"/>
+      <c r="K167" s="46"/>
+      <c r="L167" s="46"/>
+      <c r="M167" s="46"/>
+      <c r="N167" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="A3:N4"/>
+    <mergeCell ref="I131:N131"/>
+    <mergeCell ref="I132:N132"/>
+    <mergeCell ref="D134:F134"/>
+    <mergeCell ref="G134:N134"/>
+    <mergeCell ref="D135:F135"/>
+    <mergeCell ref="G135:N135"/>
+    <mergeCell ref="D136:F136"/>
+    <mergeCell ref="G136:N136"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="G137:N137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="G138:N138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="G139:N139"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="G140:N140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="G141:N141"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="G147:N147"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="G142:N142"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="G143:N143"/>
+    <mergeCell ref="D144:F144"/>
+    <mergeCell ref="G144:N144"/>
     <mergeCell ref="A153:N167"/>
     <mergeCell ref="I130:N130"/>
     <mergeCell ref="I128:N128"/>
@@ -7527,35 +7611,6 @@
     <mergeCell ref="G145:N145"/>
     <mergeCell ref="D146:F146"/>
     <mergeCell ref="G146:N146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="G147:N147"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="G142:N142"/>
-    <mergeCell ref="D143:F143"/>
-    <mergeCell ref="G143:N143"/>
-    <mergeCell ref="D144:F144"/>
-    <mergeCell ref="G144:N144"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="G139:N139"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="G140:N140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="G141:N141"/>
-    <mergeCell ref="D136:F136"/>
-    <mergeCell ref="G136:N136"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="G137:N137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="G138:N138"/>
-    <mergeCell ref="I131:N131"/>
-    <mergeCell ref="I132:N132"/>
-    <mergeCell ref="D134:F134"/>
-    <mergeCell ref="G134:N134"/>
-    <mergeCell ref="D135:F135"/>
-    <mergeCell ref="G135:N135"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="A3:N4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7565,14 +7620,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:N97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -7581,31 +7636,31 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -7623,41 +7678,41 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -7675,7 +7730,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -7693,7 +7748,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -7709,7 +7764,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -7725,7 +7780,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -7741,7 +7796,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -7757,7 +7812,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -7773,7 +7828,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -7789,7 +7844,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -7805,7 +7860,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7821,7 +7876,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -7837,7 +7892,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -7853,7 +7908,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -7869,7 +7924,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -7885,7 +7940,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -7901,7 +7956,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -7917,7 +7972,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -7933,7 +7988,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -7949,7 +8004,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -7965,7 +8020,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7981,7 +8036,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -7997,7 +8052,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -8013,7 +8068,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -8029,7 +8084,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -8045,7 +8100,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -8061,7 +8116,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -8077,7 +8132,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -8093,7 +8148,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -8109,7 +8164,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -8125,7 +8180,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -8141,7 +8196,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -8157,7 +8212,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -8173,7 +8228,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -8189,7 +8244,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -8205,7 +8260,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -8221,7 +8276,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -8237,7 +8292,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -8253,7 +8308,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -8269,7 +8324,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -8285,7 +8340,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -8301,7 +8356,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -8317,7 +8372,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -8333,7 +8388,7 @@
       <c r="M46" s="16"/>
       <c r="N46" s="17"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="15"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -8349,7 +8404,7 @@
       <c r="M47" s="16"/>
       <c r="N47" s="17"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="20"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -8365,7 +8420,7 @@
       <c r="M48" s="16"/>
       <c r="N48" s="17"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -8381,7 +8436,7 @@
       <c r="M49" s="16"/>
       <c r="N49" s="17"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -8397,7 +8452,7 @@
       <c r="M50" s="16"/>
       <c r="N50" s="17"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -8413,7 +8468,7 @@
       <c r="M51" s="16"/>
       <c r="N51" s="17"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -8429,7 +8484,7 @@
       <c r="M52" s="16"/>
       <c r="N52" s="17"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -8445,7 +8500,7 @@
       <c r="M53" s="16"/>
       <c r="N53" s="17"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -8461,7 +8516,7 @@
       <c r="M54" s="16"/>
       <c r="N54" s="17"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -8477,7 +8532,7 @@
       <c r="M55" s="16"/>
       <c r="N55" s="17"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -8493,7 +8548,7 @@
       <c r="M56" s="16"/>
       <c r="N56" s="17"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -8509,7 +8564,7 @@
       <c r="M57" s="16"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -8525,7 +8580,7 @@
       <c r="M58" s="16"/>
       <c r="N58" s="17"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -8541,7 +8596,7 @@
       <c r="M59" s="16"/>
       <c r="N59" s="17"/>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="12"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -8557,7 +8612,7 @@
       <c r="M60" s="13"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>5</v>
       </c>
@@ -8575,7 +8630,7 @@
       <c r="M61" s="6"/>
       <c r="N61" s="7"/>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="23" t="s">
         <v>6</v>
       </c>
@@ -8609,7 +8664,7 @@
       <c r="M62" s="26"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="22">
         <v>1</v>
       </c>
@@ -8620,7 +8675,7 @@
       <c r="D63" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="46" t="s">
+      <c r="E63" s="65" t="s">
         <v>58</v>
       </c>
       <c r="F63" s="22" t="s">
@@ -8630,14 +8685,14 @@
         <v>26</v>
       </c>
       <c r="H63" s="22"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="50"/>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="I63" s="67"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="69"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64" s="22">
         <v>2</v>
       </c>
@@ -8648,7 +8703,7 @@
       <c r="D64" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="47"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="22" t="s">
         <v>60</v>
       </c>
@@ -8656,14 +8711,14 @@
         <v>26</v>
       </c>
       <c r="H64" s="22"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="49"/>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="50"/>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="I64" s="67"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="69"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65" s="22">
         <v>3</v>
       </c>
@@ -8674,7 +8729,7 @@
       <c r="D65" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E65" s="47"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="22" t="s">
         <v>61</v>
       </c>
@@ -8682,14 +8737,14 @@
         <v>26</v>
       </c>
       <c r="H65" s="22"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="50"/>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="I65" s="67"/>
+      <c r="J65" s="68"/>
+      <c r="K65" s="68"/>
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="69"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66" s="22">
         <v>4</v>
       </c>
@@ -8700,7 +8755,7 @@
       <c r="D66" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E66" s="47"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="22" t="s">
         <v>62</v>
       </c>
@@ -8708,14 +8763,14 @@
         <v>26</v>
       </c>
       <c r="H66" s="22"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="49"/>
-      <c r="K66" s="49"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="50"/>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="69"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67" s="22">
         <v>5</v>
       </c>
@@ -8726,7 +8781,7 @@
       <c r="D67" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="22" t="s">
         <v>63</v>
       </c>
@@ -8734,14 +8789,14 @@
         <v>26</v>
       </c>
       <c r="H67" s="22"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="49"/>
-      <c r="K67" s="49"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="50"/>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="I67" s="67"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="69"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68" s="22">
         <v>6</v>
       </c>
@@ -8752,7 +8807,7 @@
       <c r="D68" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E68" s="47"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="22" t="s">
         <v>64</v>
       </c>
@@ -8760,14 +8815,14 @@
         <v>26</v>
       </c>
       <c r="H68" s="21"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="53"/>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="I68" s="48"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="50"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69" s="22">
         <v>7</v>
       </c>
@@ -8778,7 +8833,7 @@
       <c r="D69" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="47"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="22" t="s">
         <v>65</v>
       </c>
@@ -8786,14 +8841,14 @@
         <v>26</v>
       </c>
       <c r="H69" s="21"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="52"/>
-      <c r="N69" s="53"/>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="I69" s="48"/>
+      <c r="J69" s="49"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="50"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70" s="22">
         <v>8</v>
       </c>
@@ -8804,7 +8859,7 @@
       <c r="D70" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="47"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="22" t="s">
         <v>66</v>
       </c>
@@ -8812,14 +8867,14 @@
         <v>26</v>
       </c>
       <c r="H70" s="21"/>
-      <c r="I70" s="51"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="53"/>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="I70" s="48"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="50"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71" s="21">
         <v>9</v>
       </c>
@@ -8842,14 +8897,14 @@
       <c r="H71" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I71" s="51"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="52"/>
-      <c r="N71" s="53"/>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="I71" s="48"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="50"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72" s="21"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -8858,14 +8913,14 @@
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
       <c r="H72" s="21"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="53"/>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="I72" s="48"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="50"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>13</v>
       </c>
@@ -8883,7 +8938,7 @@
       <c r="M73" s="6"/>
       <c r="N73" s="7"/>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74" s="34" t="s">
         <v>6</v>
       </c>
@@ -8893,23 +8948,23 @@
       <c r="C74" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D74" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="55" t="s">
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="55"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="56"/>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
+      <c r="J74" s="59"/>
+      <c r="K74" s="59"/>
+      <c r="L74" s="59"/>
+      <c r="M74" s="59"/>
+      <c r="N74" s="60"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75" s="29">
         <v>1</v>
       </c>
@@ -8922,114 +8977,114 @@
       <c r="D75" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="61"/>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="E75" s="55"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="52"/>
+      <c r="M75" s="52"/>
+      <c r="N75" s="53"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="30"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="60"/>
-      <c r="L76" s="60"/>
-      <c r="M76" s="60"/>
-      <c r="N76" s="61"/>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="53"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="30"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="60"/>
-      <c r="L77" s="60"/>
-      <c r="M77" s="60"/>
-      <c r="N77" s="61"/>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="52"/>
+      <c r="I77" s="52"/>
+      <c r="J77" s="52"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="52"/>
+      <c r="M77" s="52"/>
+      <c r="N77" s="53"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="30"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="60"/>
-      <c r="L78" s="60"/>
-      <c r="M78" s="60"/>
-      <c r="N78" s="61"/>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="53"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="30"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="60"/>
-      <c r="I79" s="60"/>
-      <c r="J79" s="60"/>
-      <c r="K79" s="60"/>
-      <c r="L79" s="60"/>
-      <c r="M79" s="60"/>
-      <c r="N79" s="61"/>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="52"/>
+      <c r="I79" s="52"/>
+      <c r="J79" s="52"/>
+      <c r="K79" s="52"/>
+      <c r="L79" s="52"/>
+      <c r="M79" s="52"/>
+      <c r="N79" s="53"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="30"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="60"/>
-      <c r="I80" s="60"/>
-      <c r="J80" s="60"/>
-      <c r="K80" s="60"/>
-      <c r="L80" s="60"/>
-      <c r="M80" s="60"/>
-      <c r="N80" s="61"/>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="53"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="30"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="60"/>
-      <c r="I81" s="60"/>
-      <c r="J81" s="60"/>
-      <c r="K81" s="60"/>
-      <c r="L81" s="60"/>
-      <c r="M81" s="60"/>
-      <c r="N81" s="61"/>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="53"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
         <v>52</v>
       </c>
@@ -9047,267 +9102,250 @@
       <c r="M82" s="6"/>
       <c r="N82" s="7"/>
     </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="63"/>
-      <c r="B83" s="41"/>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="42"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="66"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="66"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="64"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="66"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="66"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="66"/>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="66"/>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="66"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="64"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="65"/>
-      <c r="M91" s="65"/>
-      <c r="N91" s="66"/>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" s="64"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="65"/>
-      <c r="H92" s="65"/>
-      <c r="I92" s="65"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="65"/>
-      <c r="M92" s="65"/>
-      <c r="N92" s="66"/>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" s="64"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-      <c r="G93" s="65"/>
-      <c r="H93" s="65"/>
-      <c r="I93" s="65"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65"/>
-      <c r="N93" s="66"/>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" s="64"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
-      <c r="I94" s="65"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="65"/>
-      <c r="M94" s="65"/>
-      <c r="N94" s="66"/>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" s="64"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-      <c r="G95" s="65"/>
-      <c r="H95" s="65"/>
-      <c r="I95" s="65"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="66"/>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
-      <c r="I96" s="65"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="66"/>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" s="43"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
-      <c r="I97" s="44"/>
-      <c r="J97" s="44"/>
-      <c r="K97" s="44"/>
-      <c r="L97" s="44"/>
-      <c r="M97" s="44"/>
-      <c r="N97" s="45"/>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A83" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="40"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="41"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A84" s="42"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="44"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A85" s="42"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="43"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
+      <c r="N85" s="44"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A86" s="42"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="43"/>
+      <c r="M86" s="43"/>
+      <c r="N86" s="44"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A87" s="42"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="43"/>
+      <c r="M87" s="43"/>
+      <c r="N87" s="44"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A88" s="42"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="43"/>
+      <c r="M88" s="43"/>
+      <c r="N88" s="44"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A89" s="42"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="L89" s="43"/>
+      <c r="M89" s="43"/>
+      <c r="N89" s="44"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A90" s="42"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="L90" s="43"/>
+      <c r="M90" s="43"/>
+      <c r="N90" s="44"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A91" s="42"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="44"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A92" s="42"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="44"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A93" s="42"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="44"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A94" s="42"/>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="44"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A95" s="42"/>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="44"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A96" s="42"/>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
+      <c r="M96" s="43"/>
+      <c r="N96" s="44"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A97" s="45"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A83:N97"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="G81:N81"/>
-    <mergeCell ref="D80:F80"/>
-    <mergeCell ref="G80:N80"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="G79:N79"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="G76:N76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:N75"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="A3:N4"/>
@@ -9320,6 +9358,25 @@
     <mergeCell ref="I65:N65"/>
     <mergeCell ref="I66:N66"/>
     <mergeCell ref="I67:N67"/>
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="G79:N79"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="A83:N97"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="G81:N81"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:N80"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9329,14 +9386,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:N4"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:N79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
@@ -9345,31 +9402,31 @@
     <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -9387,41 +9444,41 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -9439,7 +9496,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -9457,7 +9514,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -9473,7 +9530,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -9489,7 +9546,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -9505,7 +9562,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -9521,7 +9578,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -9537,7 +9594,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -9553,7 +9610,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -9569,7 +9626,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -9585,7 +9642,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -9601,7 +9658,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -9617,7 +9674,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -9633,7 +9690,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -9649,7 +9706,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -9665,7 +9722,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -9681,7 +9738,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -9697,7 +9754,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -9713,7 +9770,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -9729,7 +9786,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -9745,7 +9802,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -9761,7 +9818,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -9777,7 +9834,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -9793,7 +9850,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -9809,7 +9866,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -9825,7 +9882,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -9841,7 +9898,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -9857,7 +9914,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -9873,7 +9930,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -9889,7 +9946,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -9905,7 +9962,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -9921,7 +9978,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -9937,7 +9994,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -9953,7 +10010,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -9969,7 +10026,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -9985,7 +10042,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -10001,7 +10058,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -10017,7 +10074,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -10033,7 +10090,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -10049,7 +10106,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="16"/>
@@ -10065,7 +10122,7 @@
       <c r="M44" s="16"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -10081,7 +10138,7 @@
       <c r="M45" s="16"/>
       <c r="N45" s="17"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="12"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -10097,7 +10154,7 @@
       <c r="M46" s="13"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
@@ -10115,7 +10172,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="7"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="23" t="s">
         <v>6</v>
       </c>
@@ -10149,7 +10206,7 @@
       <c r="M48" s="26"/>
       <c r="N48" s="27"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="22">
         <v>1</v>
       </c>
@@ -10160,7 +10217,7 @@
       <c r="D49" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="46" t="s">
+      <c r="E49" s="65" t="s">
         <v>71</v>
       </c>
       <c r="F49" s="22" t="s">
@@ -10170,14 +10227,14 @@
         <v>26</v>
       </c>
       <c r="H49" s="22"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="50"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="69"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="21">
         <v>2</v>
       </c>
@@ -10188,7 +10245,7 @@
       <c r="D50" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="21" t="s">
         <v>72</v>
       </c>
@@ -10196,14 +10253,14 @@
         <v>26</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="53"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="21">
         <v>3</v>
       </c>
@@ -10214,7 +10271,7 @@
       <c r="D51" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="66"/>
       <c r="F51" s="21" t="s">
         <v>73</v>
       </c>
@@ -10222,14 +10279,14 @@
         <v>26</v>
       </c>
       <c r="H51" s="21"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="53"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="21">
         <v>4</v>
       </c>
@@ -10240,20 +10297,20 @@
       <c r="D52" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="66"/>
       <c r="F52" s="21" t="s">
         <v>74</v>
       </c>
       <c r="G52" s="31"/>
       <c r="H52" s="21"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="53"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="50"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="21">
         <v>5</v>
       </c>
@@ -10264,20 +10321,20 @@
       <c r="D53" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="47"/>
+      <c r="E53" s="66"/>
       <c r="F53" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G53" s="31"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="53"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="I53" s="48"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="50"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="21">
         <v>6</v>
       </c>
@@ -10288,7 +10345,7 @@
       <c r="D54" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="66"/>
       <c r="F54" s="21" t="s">
         <v>20</v>
       </c>
@@ -10296,14 +10353,14 @@
         <v>26</v>
       </c>
       <c r="H54" s="21"/>
-      <c r="I54" s="51"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="53"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="I54" s="48"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="49"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="50"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="21">
         <v>7</v>
       </c>
@@ -10326,14 +10383,14 @@
       <c r="H55" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I55" s="51"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="52"/>
-      <c r="N55" s="53"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="I55" s="48"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="49"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="50"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -10342,14 +10399,14 @@
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
       <c r="H56" s="21"/>
-      <c r="I56" s="51"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="53"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="I56" s="48"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="49"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="50"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
         <v>13</v>
       </c>
@@ -10367,7 +10424,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="7"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="34" t="s">
         <v>6</v>
       </c>
@@ -10377,23 +10434,23 @@
       <c r="C58" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="54" t="s">
+      <c r="D58" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="55" t="s">
+      <c r="E58" s="58"/>
+      <c r="F58" s="58"/>
+      <c r="G58" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="56"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="60"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="29">
         <v>1</v>
       </c>
@@ -10406,545 +10463,359 @@
       <c r="D59" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="61"/>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="E59" s="55"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="53"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="61"/>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="53"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="61"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="53"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="61"/>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="53"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="30"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="61"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="61"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="61"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="61"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="61"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="61"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="61"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="61"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="61"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="61"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="60"/>
-      <c r="L73" s="60"/>
-      <c r="M73" s="60"/>
-      <c r="N73" s="61"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="60"/>
-      <c r="L74" s="60"/>
-      <c r="M74" s="60"/>
-      <c r="N74" s="61"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="60"/>
-      <c r="L75" s="60"/>
-      <c r="M75" s="60"/>
-      <c r="N75" s="61"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="5" t="s">
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="52"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="53"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="7"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="63"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="42"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="66"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="66"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="66"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="66"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="64"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="66"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="64"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="66"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="66"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="66"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="64"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="66"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="66"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="64"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="66"/>
-    </row>
-    <row r="89" spans="1:14">
-      <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="66"/>
-    </row>
-    <row r="90" spans="1:14">
-      <c r="A90" s="64"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="66"/>
-    </row>
-    <row r="91" spans="1:14">
-      <c r="A91" s="43"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
-      <c r="I91" s="44"/>
-      <c r="J91" s="44"/>
-      <c r="K91" s="44"/>
-      <c r="L91" s="44"/>
-      <c r="M91" s="44"/>
-      <c r="N91" s="45"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="7"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="40"/>
+      <c r="N65" s="41"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="44"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="44"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="44"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="44"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="44"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="44"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="44"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="44"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="44"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="44"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="44"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="44"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43"/>
+      <c r="N78" s="44"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A77:N91"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:N75"/>
+  <mergeCells count="25">
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:N63"/>
+    <mergeCell ref="A3:N4"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:N59"/>
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="I50:N50"/>
     <mergeCell ref="I51:N51"/>
     <mergeCell ref="I54:N54"/>
     <mergeCell ref="I55:N55"/>
+    <mergeCell ref="A65:N79"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
     <mergeCell ref="I56:N56"/>
     <mergeCell ref="E49:E54"/>
     <mergeCell ref="G58:N58"/>
@@ -10952,36 +10823,8 @@
     <mergeCell ref="G60:N60"/>
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="G61:N61"/>
-    <mergeCell ref="A3:N4"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:N59"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="G62:N62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:N65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:N66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:N67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:N68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:N70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:N71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:N72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="G73:N73"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10991,14 +10834,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:N78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="10.125" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
@@ -11007,31 +10850,31 @@
     <col min="6" max="6" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -11049,41 +10892,41 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -11101,7 +10944,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>57</v>
       </c>
@@ -11119,7 +10962,7 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -11135,7 +10978,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="20"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -11151,7 +10994,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -11167,7 +11010,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -11183,7 +11026,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -11199,7 +11042,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="20"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -11215,7 +11058,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="20"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -11231,7 +11074,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="20"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -11247,7 +11090,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="20"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -11263,7 +11106,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="20"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -11279,7 +11122,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="20"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -11295,7 +11138,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="20"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -11311,7 +11154,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="20"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -11327,7 +11170,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="20"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -11343,7 +11186,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -11359,7 +11202,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -11375,7 +11218,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -11391,7 +11234,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -11407,7 +11250,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -11423,7 +11266,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -11439,7 +11282,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -11455,7 +11298,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -11471,7 +11314,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -11487,7 +11330,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -11503,7 +11346,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -11519,7 +11362,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -11535,7 +11378,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -11551,7 +11394,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -11567,7 +11410,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -11583,7 +11426,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -11599,7 +11442,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -11615,7 +11458,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -11631,7 +11474,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -11647,7 +11490,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -11663,7 +11506,7 @@
       <c r="M40" s="16"/>
       <c r="N40" s="17"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -11679,7 +11522,7 @@
       <c r="M41" s="16"/>
       <c r="N41" s="17"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -11695,7 +11538,7 @@
       <c r="M42" s="16"/>
       <c r="N42" s="17"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -11711,7 +11554,7 @@
       <c r="M43" s="16"/>
       <c r="N43" s="17"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -11727,7 +11570,7 @@
       <c r="M44" s="13"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
@@ -11745,7 +11588,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46" s="23" t="s">
         <v>6</v>
       </c>
@@ -11779,7 +11622,7 @@
       <c r="M46" s="26"/>
       <c r="N46" s="27"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47" s="22">
         <v>1</v>
       </c>
@@ -11800,14 +11643,14 @@
         <v>26</v>
       </c>
       <c r="H47" s="22"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="50"/>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="69"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48" s="21">
         <v>2</v>
       </c>
@@ -11826,14 +11669,14 @@
         <v>26</v>
       </c>
       <c r="H48" s="21"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="50"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="21">
         <v>3</v>
       </c>
@@ -11852,14 +11695,14 @@
         <v>26</v>
       </c>
       <c r="H49" s="21"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="53"/>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="I49" s="48"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="50"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="21">
         <v>4</v>
       </c>
@@ -11878,14 +11721,14 @@
         <v>26</v>
       </c>
       <c r="H50" s="21"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="53"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="I50" s="48"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="50"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="21">
         <v>5</v>
       </c>
@@ -11904,14 +11747,14 @@
         <v>26</v>
       </c>
       <c r="H51" s="21"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="53"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="I51" s="48"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="50"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="21">
         <v>6</v>
       </c>
@@ -11934,14 +11777,14 @@
       <c r="H52" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I52" s="51"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="53"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="I52" s="48"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="50"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -11950,14 +11793,14 @@
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="53"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="I53" s="48"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="49"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="50"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
         <v>13</v>
       </c>
@@ -11975,7 +11818,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="7"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="34" t="s">
         <v>6</v>
       </c>
@@ -11985,23 +11828,23 @@
       <c r="C55" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="54" t="s">
+      <c r="D55" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="55" t="s">
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="55"/>
-      <c r="K55" s="55"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="56"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="60"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="29">
         <v>1</v>
       </c>
@@ -12014,544 +11857,392 @@
       <c r="D56" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="61"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="E56" s="55"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="61"/>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="53"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="61"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="53"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="61"/>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="53"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="30"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="61"/>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="53"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="30"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="61"/>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="53"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="30"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="61"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="61"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="61"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="61"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="61"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="61"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="60"/>
-      <c r="L68" s="60"/>
-      <c r="M68" s="60"/>
-      <c r="N68" s="61"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="60"/>
-      <c r="L69" s="60"/>
-      <c r="M69" s="60"/>
-      <c r="N69" s="61"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="60"/>
-      <c r="L70" s="60"/>
-      <c r="M70" s="60"/>
-      <c r="N70" s="61"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="61"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="61"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="5" t="s">
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="53"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="7"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="63"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="42"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="64"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="66"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="66"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="66"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="66"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="66"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="66"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="66"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="64"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="66"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="64"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="66"/>
-    </row>
-    <row r="84" spans="1:14">
-      <c r="A84" s="64"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="66"/>
-    </row>
-    <row r="85" spans="1:14">
-      <c r="A85" s="64"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="66"/>
-    </row>
-    <row r="86" spans="1:14">
-      <c r="A86" s="64"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="66"/>
-    </row>
-    <row r="87" spans="1:14">
-      <c r="A87" s="64"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="66"/>
-    </row>
-    <row r="88" spans="1:14">
-      <c r="A88" s="43"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
-      <c r="I88" s="44"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="44"/>
-      <c r="L88" s="44"/>
-      <c r="M88" s="44"/>
-      <c r="N88" s="45"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="7"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+      <c r="M64" s="40"/>
+      <c r="N64" s="41"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="44"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="44"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="44"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="44"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="44"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="44"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="44"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="44"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="44"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="44"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A75" s="42"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
+      <c r="N75" s="44"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A76" s="42"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
+      <c r="N76" s="44"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A77" s="42"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43"/>
+      <c r="N77" s="44"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A78" s="45"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A74:N88"/>
+  <mergeCells count="27">
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:N60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:N61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:N62"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A3:N4"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="A64:N78"/>
     <mergeCell ref="I49:N49"/>
     <mergeCell ref="I50:N50"/>
     <mergeCell ref="I51:N51"/>
     <mergeCell ref="I53:N53"/>
     <mergeCell ref="I52:N52"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A3:N4"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="G55:N55"/>
     <mergeCell ref="D56:F56"/>
@@ -12562,32 +12253,6 @@
     <mergeCell ref="G58:N58"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="G59:N59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:N62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:N65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:N66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:N67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="G68:N68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="G69:N69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="G70:N70"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:N71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:N72"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12597,44 +12262,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:N75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="17.625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -12652,41 +12317,41 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="43"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="45"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="47"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -12704,7 +12369,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
         <v>18</v>
       </c>
@@ -12722,8 +12387,8 @@
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="67"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="37"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -12738,7 +12403,7 @@
       <c r="M7" s="16"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -12754,7 +12419,7 @@
       <c r="M8" s="16"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -12770,7 +12435,7 @@
       <c r="M9" s="16"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -12786,7 +12451,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -12802,7 +12467,7 @@
       <c r="M11" s="16"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -12818,7 +12483,7 @@
       <c r="M12" s="16"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -12834,7 +12499,7 @@
       <c r="M13" s="16"/>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -12850,7 +12515,7 @@
       <c r="M14" s="16"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -12866,7 +12531,7 @@
       <c r="M15" s="16"/>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -12882,7 +12547,7 @@
       <c r="M16" s="16"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -12898,7 +12563,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -12914,7 +12579,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -12930,7 +12595,7 @@
       <c r="M19" s="16"/>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -12946,7 +12611,7 @@
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -12962,7 +12627,7 @@
       <c r="M21" s="16"/>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -12978,7 +12643,7 @@
       <c r="M22" s="16"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -12994,7 +12659,7 @@
       <c r="M23" s="16"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -13010,7 +12675,7 @@
       <c r="M24" s="16"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -13026,7 +12691,7 @@
       <c r="M25" s="16"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -13042,7 +12707,7 @@
       <c r="M26" s="16"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -13058,7 +12723,7 @@
       <c r="M27" s="16"/>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -13074,7 +12739,7 @@
       <c r="M28" s="16"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -13090,7 +12755,7 @@
       <c r="M29" s="16"/>
       <c r="N29" s="17"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -13106,7 +12771,7 @@
       <c r="M30" s="16"/>
       <c r="N30" s="17"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -13122,7 +12787,7 @@
       <c r="M31" s="16"/>
       <c r="N31" s="17"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32" s="20"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -13138,7 +12803,7 @@
       <c r="M32" s="16"/>
       <c r="N32" s="17"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -13154,7 +12819,7 @@
       <c r="M33" s="16"/>
       <c r="N33" s="17"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -13170,7 +12835,7 @@
       <c r="M34" s="16"/>
       <c r="N34" s="17"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
@@ -13186,7 +12851,7 @@
       <c r="M35" s="16"/>
       <c r="N35" s="17"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="16"/>
@@ -13202,7 +12867,7 @@
       <c r="M36" s="16"/>
       <c r="N36" s="17"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -13218,7 +12883,7 @@
       <c r="M37" s="16"/>
       <c r="N37" s="17"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -13234,7 +12899,7 @@
       <c r="M38" s="16"/>
       <c r="N38" s="17"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -13250,7 +12915,7 @@
       <c r="M39" s="16"/>
       <c r="N39" s="17"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -13266,7 +12931,7 @@
       <c r="M40" s="13"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -13284,7 +12949,7 @@
       <c r="M41" s="6"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="23" t="s">
         <v>6</v>
       </c>
@@ -13319,7 +12984,7 @@
       <c r="N42" s="26"/>
       <c r="O42" s="15"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="22">
         <v>1</v>
       </c>
@@ -13338,14 +13003,14 @@
         <v>26</v>
       </c>
       <c r="H43" s="22"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="50"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="69"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="21">
         <v>2</v>
       </c>
@@ -13362,14 +13027,14 @@
         <v>26</v>
       </c>
       <c r="H44" s="21"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
-      <c r="M44" s="52"/>
-      <c r="N44" s="53"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="I44" s="48"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="50"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="21">
         <v>3</v>
       </c>
@@ -13386,14 +13051,14 @@
         <v>26</v>
       </c>
       <c r="H45" s="21"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
-      <c r="M45" s="52"/>
-      <c r="N45" s="53"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="I45" s="48"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="50"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="21">
         <v>4</v>
       </c>
@@ -13410,14 +13075,14 @@
         <v>26</v>
       </c>
       <c r="H46" s="21"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="53"/>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="I46" s="48"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="50"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="21">
         <v>5</v>
       </c>
@@ -13440,14 +13105,14 @@
       <c r="H47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="53"/>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="I47" s="48"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="50"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -13456,14 +13121,14 @@
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="I48" s="48"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="50"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
@@ -13481,7 +13146,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="7"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50" s="34" t="s">
         <v>6</v>
       </c>
@@ -13491,23 +13156,23 @@
       <c r="C50" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="56"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="60"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51" s="29">
         <v>1</v>
       </c>
@@ -13520,547 +13185,407 @@
       <c r="D51" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="61"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="E51" s="55"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="53"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="30"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="60"/>
-      <c r="N52" s="61"/>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="53"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="30"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="60"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="60"/>
-      <c r="N53" s="61"/>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="53"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="30"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="61"/>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="53"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="30"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
-      <c r="N55" s="61"/>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="53"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="30"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="60"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="60"/>
-      <c r="N56" s="61"/>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="53"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="60"/>
-      <c r="L57" s="60"/>
-      <c r="M57" s="60"/>
-      <c r="N57" s="61"/>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="53"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="30"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="60"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="60"/>
-      <c r="N58" s="61"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="53"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="30"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-      <c r="N59" s="61"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="61"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="61"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="60"/>
-      <c r="M62" s="60"/>
-      <c r="N62" s="61"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="61"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="60"/>
-      <c r="L64" s="60"/>
-      <c r="M64" s="60"/>
-      <c r="N64" s="61"/>
-    </row>
-    <row r="65" spans="1:14">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="60"/>
-      <c r="L65" s="60"/>
-      <c r="M65" s="60"/>
-      <c r="N65" s="61"/>
-    </row>
-    <row r="66" spans="1:14">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="61"/>
-    </row>
-    <row r="67" spans="1:14">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="60"/>
-      <c r="L67" s="60"/>
-      <c r="M67" s="60"/>
-      <c r="N67" s="61"/>
-    </row>
-    <row r="68" spans="1:14">
-      <c r="A68" s="5" t="s">
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="52"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="53"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="7"/>
-    </row>
-    <row r="69" spans="1:14">
-      <c r="A69" s="63"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="42"/>
-    </row>
-    <row r="70" spans="1:14">
-      <c r="A70" s="64"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="65"/>
-      <c r="H70" s="65"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="65"/>
-      <c r="K70" s="65"/>
-      <c r="L70" s="65"/>
-      <c r="M70" s="65"/>
-      <c r="N70" s="66"/>
-    </row>
-    <row r="71" spans="1:14">
-      <c r="A71" s="64"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="65"/>
-      <c r="L71" s="65"/>
-      <c r="M71" s="65"/>
-      <c r="N71" s="66"/>
-    </row>
-    <row r="72" spans="1:14">
-      <c r="A72" s="64"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="65"/>
-      <c r="M72" s="65"/>
-      <c r="N72" s="66"/>
-    </row>
-    <row r="73" spans="1:14">
-      <c r="A73" s="64"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="65"/>
-      <c r="K73" s="65"/>
-      <c r="L73" s="65"/>
-      <c r="M73" s="65"/>
-      <c r="N73" s="66"/>
-    </row>
-    <row r="74" spans="1:14">
-      <c r="A74" s="64"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="65"/>
-      <c r="J74" s="65"/>
-      <c r="K74" s="65"/>
-      <c r="L74" s="65"/>
-      <c r="M74" s="65"/>
-      <c r="N74" s="66"/>
-    </row>
-    <row r="75" spans="1:14">
-      <c r="A75" s="64"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="65"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="65"/>
-      <c r="M75" s="65"/>
-      <c r="N75" s="66"/>
-    </row>
-    <row r="76" spans="1:14">
-      <c r="A76" s="64"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
-      <c r="N76" s="66"/>
-    </row>
-    <row r="77" spans="1:14">
-      <c r="A77" s="64"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
-      <c r="N77" s="66"/>
-    </row>
-    <row r="78" spans="1:14">
-      <c r="A78" s="64"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
-      <c r="N78" s="66"/>
-    </row>
-    <row r="79" spans="1:14">
-      <c r="A79" s="64"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="66"/>
-    </row>
-    <row r="80" spans="1:14">
-      <c r="A80" s="64"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="65"/>
-      <c r="N80" s="66"/>
-    </row>
-    <row r="81" spans="1:14">
-      <c r="A81" s="64"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="66"/>
-    </row>
-    <row r="82" spans="1:14">
-      <c r="A82" s="64"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="66"/>
-    </row>
-    <row r="83" spans="1:14">
-      <c r="A83" s="43"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="44"/>
-      <c r="E83" s="44"/>
-      <c r="F83" s="44"/>
-      <c r="G83" s="44"/>
-      <c r="H83" s="44"/>
-      <c r="I83" s="44"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="44"/>
-      <c r="L83" s="44"/>
-      <c r="M83" s="44"/>
-      <c r="N83" s="45"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="7"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="41"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="42"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="43"/>
+      <c r="N62" s="44"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A63" s="42"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
+      <c r="N63" s="44"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="44"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="42"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="44"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A66" s="42"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="43"/>
+      <c r="M66" s="43"/>
+      <c r="N66" s="44"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="42"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="44"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="42"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="44"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="42"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="44"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A70" s="42"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="44"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="42"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="44"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" s="42"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="44"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A73" s="42"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
+      <c r="N73" s="44"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="42"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
+      <c r="N74" s="44"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A75" s="45"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A69:N83"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="G57:N57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="G58:N58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:N59"/>
-    <mergeCell ref="G55:N55"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:N50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:N51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:N52"/>
+  <mergeCells count="30">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A3:N4"/>
     <mergeCell ref="J1:N1"/>
@@ -14077,22 +13602,20 @@
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="G54:N54"/>
     <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="G60:N60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:N61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="G62:N62"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="G66:N66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:N67"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="G63:N63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="G64:N64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="G65:N65"/>
+    <mergeCell ref="G55:N55"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:N50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="G51:N51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:N52"/>
+    <mergeCell ref="A61:N75"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:N57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:N58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:N59"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
